--- a/inst/dados_premissas/2023/fc_distribuidoras.xlsx
+++ b/inst/dados_premissas/2023/fc_distribuidoras.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\codigos-R\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DE40CE-C138-481C-A483-026CC7956B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53405067-F026-4375-B79C-DA245572D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$55</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -133,9 +136,6 @@
     <t>COCEL</t>
   </si>
   <si>
-    <t>FORCEL</t>
-  </si>
-  <si>
     <t>EFLUL</t>
   </si>
   <si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>EQUATORIAL GO</t>
+  </si>
+  <si>
+    <t>PACTO</t>
   </si>
 </sst>
 </file>
@@ -263,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -303,9 +306,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,26 +341,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,26 +376,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -585,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,7 +684,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>0.1505592130095621</v>
@@ -749,7 +718,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>0.16339373716632441</v>
@@ -1089,7 +1058,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>0.1710513371051775</v>
@@ -1208,7 +1177,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B37">
         <v>0.15511875</v>
@@ -1225,7 +1194,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0.1367723214285714</v>
@@ -1242,7 +1211,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0.15209103260869561</v>
@@ -1259,7 +1228,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0.13507812499999999</v>
@@ -1276,7 +1245,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0.1525</v>
@@ -1293,7 +1262,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0.16709013157894739</v>
@@ -1310,7 +1279,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0.17455717518636851</v>
@@ -1327,7 +1296,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0.145328323903819</v>
@@ -1344,7 +1313,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0.1805071588645418</v>
@@ -1361,7 +1330,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0.16517792705088269</v>
@@ -1378,7 +1347,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0.16333881578947371</v>
@@ -1395,7 +1364,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0.15914984631147541</v>
@@ -1412,7 +1381,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0.16293693573539059</v>
@@ -1429,7 +1398,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0.15918310778347211</v>
@@ -1446,7 +1415,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0.17823956763376039</v>
@@ -1463,7 +1432,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0.15420253696236561</v>
@@ -1480,7 +1449,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0.1668</v>
@@ -1497,7 +1466,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>0.1452606486167341</v>
@@ -1514,7 +1483,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0.1624791666666667</v>
@@ -1530,6 +1499,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/dados_premissas/2023/fc_distribuidoras.xlsx
+++ b/inst/dados_premissas/2023/fc_distribuidoras.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\codigos-R\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53405067-F026-4375-B79C-DA245572D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F818C8D-B3E1-4759-9097-95A906DE0D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$53</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>nome_4md</t>
   </si>
@@ -118,18 +118,9 @@
     <t>CEEE</t>
   </si>
   <si>
-    <t>EMG</t>
-  </si>
-  <si>
     <t>EPB</t>
   </si>
   <si>
-    <t>EBO</t>
-  </si>
-  <si>
-    <t>ENF</t>
-  </si>
-  <si>
     <t>AME</t>
   </si>
   <si>
@@ -200,6 +191,9 @@
   </si>
   <si>
     <t>PACTO</t>
+  </si>
+  <si>
+    <t>EMR</t>
   </si>
 </sst>
 </file>
@@ -552,18 +546,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -597,7 +591,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -614,7 +608,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -631,7 +625,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -648,7 +642,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -665,7 +659,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -682,9 +676,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>0.1505592130095621</v>
@@ -699,7 +693,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -716,9 +710,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>0.16339373716632441</v>
@@ -733,7 +727,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -750,7 +744,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -767,7 +761,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -784,7 +778,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -801,7 +795,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -818,7 +812,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -835,7 +829,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -852,7 +846,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -869,7 +863,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -886,7 +880,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -903,7 +897,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -920,7 +914,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -937,7 +931,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -954,7 +948,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -971,7 +965,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -988,7 +982,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1005,7 +999,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1022,7 +1016,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1039,7 +1033,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1056,9 +1050,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>0.1710513371051775</v>
@@ -1073,15 +1067,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.15344402985074629</v>
+        <v>0.1785158783783784</v>
       </c>
       <c r="C31">
-        <v>0.163673631840796</v>
+        <v>0.19041693693693701</v>
       </c>
       <c r="D31">
         <v>0.7</v>
@@ -1090,15 +1084,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.1785158783783784</v>
+        <v>0.14053577283818819</v>
       </c>
       <c r="C32">
-        <v>0.19041693693693701</v>
+        <v>0.1499048243607341</v>
       </c>
       <c r="D32">
         <v>0.7</v>
@@ -1107,15 +1101,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.16778437500000001</v>
+        <v>0.1380348557692308</v>
       </c>
       <c r="C33">
-        <v>0.17896999999999999</v>
+        <v>0.14723717948717949</v>
       </c>
       <c r="D33">
         <v>0.7</v>
@@ -1124,66 +1118,66 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>0.15511875</v>
+      </c>
+      <c r="C34">
+        <v>0.16546</v>
+      </c>
+      <c r="D34">
+        <v>0.7</v>
+      </c>
+      <c r="E34">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>0.14625976562500001</v>
-      </c>
-      <c r="C34">
-        <v>0.15601041666666671</v>
-      </c>
-      <c r="D34">
-        <v>0.7</v>
-      </c>
-      <c r="E34">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>0.1367723214285714</v>
+      </c>
+      <c r="C35">
+        <v>0.14589047619047621</v>
+      </c>
+      <c r="D35">
+        <v>0.7</v>
+      </c>
+      <c r="E35">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>0.14053577283818819</v>
-      </c>
-      <c r="C35">
-        <v>0.1499048243607341</v>
-      </c>
-      <c r="D35">
-        <v>0.7</v>
-      </c>
-      <c r="E35">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>0.15209103260869561</v>
+      </c>
+      <c r="C36">
+        <v>0.16223043478260871</v>
+      </c>
+      <c r="D36">
+        <v>0.7</v>
+      </c>
+      <c r="E36">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>0.1380348557692308</v>
-      </c>
-      <c r="C36">
-        <v>0.14723717948717949</v>
-      </c>
-      <c r="D36">
-        <v>0.7</v>
-      </c>
-      <c r="E36">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
       <c r="B37">
-        <v>0.15511875</v>
+        <v>0.13507812499999999</v>
       </c>
       <c r="C37">
-        <v>0.16546</v>
+        <v>0.14408333333333331</v>
       </c>
       <c r="D37">
         <v>0.7</v>
@@ -1192,15 +1186,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.1367723214285714</v>
+        <v>0.1525</v>
       </c>
       <c r="C38">
-        <v>0.14589047619047621</v>
+        <v>0.16266666666666671</v>
       </c>
       <c r="D38">
         <v>0.7</v>
@@ -1209,15 +1203,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.15209103260869561</v>
+        <v>0.16709013157894739</v>
       </c>
       <c r="C39">
-        <v>0.16223043478260871</v>
+        <v>0.17822947368421049</v>
       </c>
       <c r="D39">
         <v>0.7</v>
@@ -1226,15 +1220,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.13507812499999999</v>
+        <v>0.17455717518636851</v>
       </c>
       <c r="C40">
-        <v>0.14408333333333331</v>
+        <v>0.18619432019879309</v>
       </c>
       <c r="D40">
         <v>0.7</v>
@@ -1243,15 +1237,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.1525</v>
+        <v>0.145328323903819</v>
       </c>
       <c r="C41">
-        <v>0.16266666666666671</v>
+        <v>0.1550168788307402</v>
       </c>
       <c r="D41">
         <v>0.7</v>
@@ -1260,15 +1254,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.16709013157894739</v>
+        <v>0.1805071588645418</v>
       </c>
       <c r="C42">
-        <v>0.17822947368421049</v>
+        <v>0.1925409694555113</v>
       </c>
       <c r="D42">
         <v>0.7</v>
@@ -1277,15 +1271,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.17455717518636851</v>
+        <v>0.16517792705088269</v>
       </c>
       <c r="C43">
-        <v>0.18619432019879309</v>
+        <v>0.1761897888542748</v>
       </c>
       <c r="D43">
         <v>0.7</v>
@@ -1294,15 +1288,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.145328323903819</v>
+        <v>0.16333881578947371</v>
       </c>
       <c r="C44">
-        <v>0.1550168788307402</v>
+        <v>0.17422807017543859</v>
       </c>
       <c r="D44">
         <v>0.7</v>
@@ -1311,15 +1305,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.1805071588645418</v>
+        <v>0.15914984631147541</v>
       </c>
       <c r="C45">
-        <v>0.1925409694555113</v>
+        <v>0.16975983606557379</v>
       </c>
       <c r="D45">
         <v>0.7</v>
@@ -1328,15 +1322,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.16517792705088269</v>
+        <v>0.16293693573539059</v>
       </c>
       <c r="C46">
-        <v>0.1761897888542748</v>
+        <v>0.17379939811775011</v>
       </c>
       <c r="D46">
         <v>0.7</v>
@@ -1345,15 +1339,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.16333881578947371</v>
+        <v>0.15918310778347211</v>
       </c>
       <c r="C47">
-        <v>0.17422807017543859</v>
+        <v>0.16979531496903691</v>
       </c>
       <c r="D47">
         <v>0.7</v>
@@ -1362,15 +1356,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.15914984631147541</v>
+        <v>0.17823956763376039</v>
       </c>
       <c r="C48">
-        <v>0.16975983606557379</v>
+        <v>0.19012220547601111</v>
       </c>
       <c r="D48">
         <v>0.7</v>
@@ -1379,15 +1373,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.16293693573539059</v>
+        <v>0.15420253696236561</v>
       </c>
       <c r="C49">
-        <v>0.17379939811775011</v>
+        <v>0.16448270609318999</v>
       </c>
       <c r="D49">
         <v>0.7</v>
@@ -1396,15 +1390,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.15918310778347211</v>
+        <v>0.1668</v>
       </c>
       <c r="C50">
-        <v>0.16979531496903691</v>
+        <v>0.17791999999999999</v>
       </c>
       <c r="D50">
         <v>0.7</v>
@@ -1413,15 +1407,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.17823956763376039</v>
+        <v>0.1452606486167341</v>
       </c>
       <c r="C51">
-        <v>0.19012220547601111</v>
+        <v>0.1549446918578497</v>
       </c>
       <c r="D51">
         <v>0.7</v>
@@ -1430,15 +1424,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.15420253696236561</v>
+        <v>0.1624791666666667</v>
       </c>
       <c r="C52">
-        <v>0.16448270609318999</v>
+        <v>0.17331111111111111</v>
       </c>
       <c r="D52">
         <v>0.7</v>
@@ -1447,15 +1441,15 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1668</v>
+        <v>0.15344402985074629</v>
       </c>
       <c r="C53">
-        <v>0.17791999999999999</v>
+        <v>0.163673631840796</v>
       </c>
       <c r="D53">
         <v>0.7</v>
@@ -1464,42 +1458,8 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>0.1452606486167341</v>
-      </c>
-      <c r="C54">
-        <v>0.1549446918578497</v>
-      </c>
-      <c r="D54">
-        <v>0.7</v>
-      </c>
-      <c r="E54">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>0.1624791666666667</v>
-      </c>
-      <c r="C55">
-        <v>0.17331111111111111</v>
-      </c>
-      <c r="D55">
-        <v>0.7</v>
-      </c>
-      <c r="E55">
-        <v>0.45</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>